--- a/mosip_master/xlsx/machine_type.xlsx
+++ b/mosip_master/xlsx/machine_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">is_active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESIDENT-REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident services virtual registration machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-existent machine created for Resident services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
   </si>
 </sst>
 </file>
@@ -140,7 +125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -155,14 +140,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -182,19 +159,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -214,71 +187,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="5"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
